--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value261.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value261.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7496330720523157</v>
+        <v>2.119011402130127</v>
       </c>
       <c r="B1">
-        <v>0.8964312977493651</v>
+        <v>2.596107959747314</v>
       </c>
       <c r="C1">
-        <v>1.186814950759535</v>
+        <v>2.709514141082764</v>
       </c>
       <c r="D1">
-        <v>2.671439433287796</v>
+        <v>3.107975244522095</v>
       </c>
       <c r="E1">
-        <v>3.503713070234137</v>
+        <v>0.7647616863250732</v>
       </c>
     </row>
   </sheetData>
